--- a/src/Databases/December-2016.xlsx
+++ b/src/Databases/December-2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="10">
   <si>
     <t>Produkti</t>
   </si>
@@ -27,6 +27,21 @@
   </si>
   <si>
     <t>Kamarieri</t>
+  </si>
+  <si>
+    <t>Birre</t>
+  </si>
+  <si>
+    <t>14-12-2016</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Kafe</t>
+  </si>
+  <si>
+    <t>Cola</t>
   </si>
 </sst>
 </file>
@@ -139,11 +154,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -152,15 +167,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.34375" customWidth="true"/>
-    <col min="2" max="2" width="27.34375" customWidth="true"/>
-    <col min="3" max="3" width="27.34375" customWidth="true"/>
-    <col min="4" max="4" width="35.15625" customWidth="true"/>
-    <col min="5" max="5" width="54.6875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="27.34375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.34375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="54.6875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -180,6 +195,538 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
